--- a/tests/test-aps.xlsx
+++ b/tests/test-aps.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mason/PycharmProjects/AP-Config/tests/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mason/PycharmProjects/APC/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="18980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,25 +32,25 @@
     <t>MAC Address</t>
   </si>
   <si>
-    <t>00:22:90:91:1c:df</t>
-  </si>
-  <si>
-    <t>csc-TESTLAB-ap1140</t>
-  </si>
-  <si>
-    <t>cc:ef:48:01:6e:82</t>
-  </si>
-  <si>
-    <t>csc-TESTLAB-ap3500</t>
-  </si>
-  <si>
-    <t>88:f0:31:e1:57:08</t>
-  </si>
-  <si>
-    <t>csc-TESTLAB-ap3700</t>
-  </si>
-  <si>
     <t>Name/Location</t>
+  </si>
+  <si>
+    <t>00:27:e3:7d:48:b0</t>
+  </si>
+  <si>
+    <t>vmed-1301-ap2800</t>
+  </si>
+  <si>
+    <t>00:27:e3:7d:48:88</t>
+  </si>
+  <si>
+    <t>vmed-1316-ap2800</t>
+  </si>
+  <si>
+    <t>a0:23:9f:41:10:cc</t>
+  </si>
+  <si>
+    <t>vmed-1405c-ap2800</t>
   </si>
 </sst>
 </file>
@@ -69,6 +69,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -413,12 +414,12 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -428,31 +429,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
